--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:52:02+00:00</t>
+    <t>2024-04-30T08:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T08:40:24+00:00</t>
+    <t>2024-11-22T13:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour la définition du Bundle de réponse à la recherche d'une décision d'orientation ou d'une évaluation</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter les documents répondant à une recherche de decision ou d’évaluation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -596,7 +596,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -867,7 +867,7 @@
     <t>ESMSConsent</t>
   </si>
   <si>
-    <t>Profil pour la définition de l'accord</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter la définition de l’accord.</t>
   </si>
   <si>
     <t>Consent</t>
@@ -937,7 +937,7 @@
     <t>Identifiant de l’ESMS créant la ressource (=idNat_Struct). Il s’agit de la structure bénéficiant de l’accord.</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -957,7 +957,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1861,7 +1861,7 @@
     <t>ESMSDocumentReference</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier ESMS</t>
+    <t>Profil ESMS héritant du profil SDODocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>DocumentReference</t>
@@ -2459,7 +2459,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -2650,7 +2650,7 @@
     <t>SDOBundleResultatRechercheNotificationESMS</t>
   </si>
   <si>
-    <t>Profil pour la définition du Bundle de réponse à la recherche d'une notification</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour transporter les résultats d’une recherche de notification.</t>
   </si>
   <si>
     <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/sdo-task}
@@ -2669,7 +2669,7 @@
     <t>SDODocumentReference</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier SDO</t>
+    <t>Profil SDO utilisé pour véhiculer les données de l’individu, la décision et l’évaluation contenus dans le document CDA</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
@@ -2700,7 +2700,7 @@
     <t>SDOTask</t>
   </si>
   <si>
-    <t>Profil utilisé pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation.</t>
   </si>
   <si>
     <t>Task</t>
@@ -3704,7 +3704,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-ModePriseEnCharge/FHIR/JDV_JXX-ModePriseEnCharge/</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/FHIR/JDV-J264-ModeEtCentreDePriseEnCharge-MDPH</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -5120,7 +5120,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="123.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="123.671875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/all-profiles.xlsx
+++ b/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:13:12+00:00</t>
+    <t>2025-10-14T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2912,7 +2912,7 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t>Human-readable explanation of task</t>
+    <t>A utiliser pour transmettre les commentaires de la MDPH lors d’une annulation d’une notification ou d’un refus de l’admission impossible ou d’une réactivation d’une notification et/ou de l'usager lors d’une annulation d’une notification ou d’une réactivation une notification.</t>
   </si>
   <si>
     <t>A free-text description of what is to be performed.</t>
@@ -3428,7 +3428,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée dans le statut</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l'ESMS.</t>
   </si>
   <si>
     <t>Task.input:dateStatutESMS.id</t>
@@ -3728,7 +3728,7 @@
     <t>dateStatutUnite</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée renseignée par l'utilisateur pour les statuts</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l’unité.</t>
   </si>
   <si>
     <t>Task.input:dateStatutUnite.id</t>
@@ -5015,17 +5015,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.99609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5034,21 +5034,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="96.98046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="55.12890625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="123.671875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="83.14453125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="47.265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
